--- a/data/eBooks-main/current/blogs/net7perf/Performance-Improvements-in-NET7.pdf.hwaifs/tables/py/gmft/df.tables-27.xlsx
+++ b/data/eBooks-main/current/blogs/net7perf/Performance-Improvements-in-NET7.pdf.hwaifs/tables/py/gmft/df.tables-27.xlsx
@@ -505,12 +505,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>now fully this on my</t>
+          <t>now fully configured this on my</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>configured to be able to target Native AOT. All that’s Windows x64 machine, I’ll target that:</t>
+          <t>to be able to target Native AOT. All that’s Windows x64 machine, I’ll target that:</t>
         </is>
       </c>
     </row>
@@ -601,14 +601,10 @@
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Length</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
+          <t>Length Name</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
